--- a/SIGVerse/dataset/similar/3LDK/3LDK_06/position/3LDK_6_position.xlsx
+++ b/SIGVerse/dataset/similar/3LDK/3LDK_06/position/3LDK_6_position.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\SpCoNavi\CoRL\dataset\similar\3LDK\3LDK_06\position\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akira\Dropbox\SpCoSLAM\SpCoTMHP\SIGVerse\dataset\similar\3LDK\3LDK_06\position\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0C0A8A-019E-4F48-894B-D4FEF3B55260}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12255" yWindow="645" windowWidth="16530" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12255" yWindow="645" windowWidth="16530" windowHeight="15375"/>
   </bookViews>
   <sheets>
     <sheet name="3LDK_6_position" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -67,7 +66,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -654,8 +653,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -717,7 +719,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -731,6 +733,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -804,10 +807,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'3LDK_6_position'!$D$2:$D$151</c:f>
+              <c:f>'3LDK_6_position'!$D$2:$D$166</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="150"/>
+                <c:ptCount val="165"/>
                 <c:pt idx="0">
                   <c:v>-3.24</c:v>
                 </c:pt>
@@ -1257,16 +1260,61 @@
                 </c:pt>
                 <c:pt idx="149">
                   <c:v>-4.95</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-1.337</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-1.4909999999999999</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-1.5189999999999999</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-1.4489999999999998</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-2.0789999999999997</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-2.2539999999999996</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-2.3939999999999997</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-2.5339999999999998</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-2.569</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-2.6320000000000001</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-2.5549999999999997</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-2.569</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-2.2119999999999997</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-1.7990000000000002</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-1.246</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'3LDK_6_position'!$C$2:$C$151</c:f>
+              <c:f>'3LDK_6_position'!$C$2:$C$166</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="150"/>
+                <c:ptCount val="165"/>
                 <c:pt idx="0">
                   <c:v>4.37</c:v>
                 </c:pt>
@@ -1280,7 +1328,7 @@
                   <c:v>4.72</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.85</c:v>
+                  <c:v>4.8499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4.9000000000000004</c:v>
@@ -1716,12 +1764,57 @@
                 </c:pt>
                 <c:pt idx="149">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>3.1849999999999996</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>3.3249999999999997</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>3.3459999999999992</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>3.0380000000000003</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>3.3180000000000001</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>3.0170000000000003</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>3.234</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>3.472</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>3.6260000000000003</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>3.78</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>3.8639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>3.9689999999999999</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>4.0599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>4.1509999999999998</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>4.1719999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4FD6-439A-8D0D-6ADD53AE695A}"/>
             </c:ext>
@@ -1735,11 +1828,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="188880232"/>
-        <c:axId val="188879840"/>
+        <c:axId val="379164664"/>
+        <c:axId val="379165048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="188880232"/>
+        <c:axId val="379164664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1796,12 +1889,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188879840"/>
+        <c:crossAx val="379165048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="188879840"/>
+        <c:axId val="379165048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1858,7 +1951,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188880232"/>
+        <c:crossAx val="379164664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1906,7 +1999,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -1969,7 +2062,7 @@
                   <c:v>4.72</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.85</c:v>
+                  <c:v>4.8499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4.9000000000000004</c:v>
@@ -2409,7 +2502,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E81F-4A51-95EA-30B1115C65BE}"/>
             </c:ext>
@@ -2898,7 +2991,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E81F-4A51-95EA-30B1115C65BE}"/>
             </c:ext>
@@ -2914,11 +3007,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="404507872"/>
-        <c:axId val="396075760"/>
+        <c:axId val="378923192"/>
+        <c:axId val="129287600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="404507872"/>
+        <c:axId val="378923192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2960,7 +3053,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396075760"/>
+        <c:crossAx val="129287600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2968,7 +3061,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="396075760"/>
+        <c:axId val="129287600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3019,7 +3112,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404507872"/>
+        <c:crossAx val="378923192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3033,6 +3126,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3064,14 +3158,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4225,7 +4319,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4275,7 +4369,7 @@
         <xdr:cNvPr id="3" name="グラフ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4311,7 +4405,7 @@
         <xdr:cNvPr id="4" name="グラフ 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5171207C-EF99-4949-A113-D94DB405AE56}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5171207C-EF99-4949-A113-D94DB405AE56}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4327,6 +4421,655 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>53553</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="5400000">
+          <a:off x="10699539" y="454237"/>
+          <a:ext cx="4248150" cy="4635078"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>196062</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>39582</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>175747</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>115236</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="上下矢印 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="13435453" y="2230691"/>
+          <a:ext cx="247104" cy="665485"/>
+        </a:xfrm>
+        <a:prstGeom prst="upDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="上下矢印 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11877675" y="3124200"/>
+          <a:ext cx="228600" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="upDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="上下矢印 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13077825" y="3057525"/>
+          <a:ext cx="228600" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="upDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="上下矢印 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12811125" y="1733550"/>
+          <a:ext cx="228600" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="upDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="上下矢印 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14458950" y="1762125"/>
+          <a:ext cx="228600" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="upDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="円/楕円 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11858625" y="1504950"/>
+          <a:ext cx="628650" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="上下矢印 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12153900" y="1943101"/>
+          <a:ext cx="228600" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="upDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>367512</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>153883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>347197</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>58087</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="上下矢印 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="11549503" y="1487742"/>
+          <a:ext cx="247104" cy="665485"/>
+        </a:xfrm>
+        <a:prstGeom prst="upDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="上下矢印 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11153775" y="1838325"/>
+          <a:ext cx="247650" cy="504826"/>
+        </a:xfrm>
+        <a:prstGeom prst="upDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>529437</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>106260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>509122</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>10464</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="上下矢印 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="7862530">
+          <a:off x="11711428" y="1097219"/>
+          <a:ext cx="247104" cy="665485"/>
+        </a:xfrm>
+        <a:prstGeom prst="upDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="上下矢印 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12039600" y="1095375"/>
+          <a:ext cx="247650" cy="504826"/>
+        </a:xfrm>
+        <a:prstGeom prst="upDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4594,11 +5337,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G151"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4723,7 +5466,7 @@
         <v>102.54</v>
       </c>
       <c r="C6">
-        <v>1.85</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="D6">
         <v>-3.75</v>
@@ -7912,7 +8655,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A145">
         <v>143</v>
       </c>
@@ -7935,7 +8678,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A146">
         <v>144</v>
       </c>
@@ -7958,7 +8701,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A147">
         <v>145</v>
       </c>
@@ -7981,7 +8724,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A148">
         <v>146</v>
       </c>
@@ -8004,7 +8747,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A149">
         <v>147</v>
       </c>
@@ -8027,7 +8770,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A150">
         <v>148</v>
       </c>
@@ -8050,7 +8793,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A151">
         <v>149</v>
       </c>
@@ -8071,11 +8814,443 @@
       </c>
       <c r="G151" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="C152">
+        <v>3.1849999999999996</v>
+      </c>
+      <c r="D152">
+        <v>-1.337</v>
+      </c>
+      <c r="H152">
+        <v>2.2749999999999999</v>
+      </c>
+      <c r="I152">
+        <v>-0.95500000000000007</v>
+      </c>
+      <c r="J152">
+        <v>1.4</v>
+      </c>
+      <c r="K152">
+        <f>H152*J152</f>
+        <v>3.1849999999999996</v>
+      </c>
+      <c r="L152">
+        <f>I152*J152</f>
+        <v>-1.337</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="C153">
+        <v>3.3249999999999997</v>
+      </c>
+      <c r="D153">
+        <v>-1.4909999999999999</v>
+      </c>
+      <c r="H153">
+        <v>2.375</v>
+      </c>
+      <c r="I153">
+        <v>-1.0649999999999999</v>
+      </c>
+      <c r="J153">
+        <v>1.4</v>
+      </c>
+      <c r="K153">
+        <f t="shared" ref="K153:K166" si="0">H153*J153</f>
+        <v>3.3249999999999997</v>
+      </c>
+      <c r="L153">
+        <f t="shared" ref="L153:L166" si="1">I153*J153</f>
+        <v>-1.4909999999999999</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="C154">
+        <v>3.3459999999999992</v>
+      </c>
+      <c r="D154">
+        <v>-1.5189999999999999</v>
+      </c>
+      <c r="H154">
+        <v>2.3899999999999997</v>
+      </c>
+      <c r="I154">
+        <v>-1.085</v>
+      </c>
+      <c r="J154">
+        <v>1.4</v>
+      </c>
+      <c r="K154">
+        <f t="shared" si="0"/>
+        <v>3.3459999999999992</v>
+      </c>
+      <c r="L154">
+        <f t="shared" si="1"/>
+        <v>-1.5189999999999999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="C155">
+        <v>3.0380000000000003</v>
+      </c>
+      <c r="D155">
+        <v>-1.4489999999999998</v>
+      </c>
+      <c r="H155">
+        <v>2.1700000000000004</v>
+      </c>
+      <c r="I155">
+        <v>-1.0349999999999999</v>
+      </c>
+      <c r="J155">
+        <v>1.4</v>
+      </c>
+      <c r="K155">
+        <f t="shared" si="0"/>
+        <v>3.0380000000000003</v>
+      </c>
+      <c r="L155">
+        <f t="shared" si="1"/>
+        <v>-1.4489999999999998</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="C156">
+        <v>3.3180000000000001</v>
+      </c>
+      <c r="D156">
+        <v>-2.0789999999999997</v>
+      </c>
+      <c r="H156">
+        <v>2.37</v>
+      </c>
+      <c r="I156">
+        <v>-1.4849999999999999</v>
+      </c>
+      <c r="J156">
+        <v>1.4</v>
+      </c>
+      <c r="K156">
+        <f t="shared" si="0"/>
+        <v>3.3180000000000001</v>
+      </c>
+      <c r="L156">
+        <f t="shared" si="1"/>
+        <v>-2.0789999999999997</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="C157">
+        <v>3.0170000000000003</v>
+      </c>
+      <c r="D157">
+        <v>-2.2539999999999996</v>
+      </c>
+      <c r="H157">
+        <v>2.1550000000000002</v>
+      </c>
+      <c r="I157">
+        <v>-1.6099999999999999</v>
+      </c>
+      <c r="J157">
+        <v>1.4</v>
+      </c>
+      <c r="K157">
+        <f t="shared" si="0"/>
+        <v>3.0170000000000003</v>
+      </c>
+      <c r="L157">
+        <f t="shared" si="1"/>
+        <v>-2.2539999999999996</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="C158">
+        <v>3.234</v>
+      </c>
+      <c r="D158">
+        <v>-2.3939999999999997</v>
+      </c>
+      <c r="H158">
+        <v>2.31</v>
+      </c>
+      <c r="I158">
+        <v>-1.71</v>
+      </c>
+      <c r="J158">
+        <v>1.4</v>
+      </c>
+      <c r="K158">
+        <f t="shared" si="0"/>
+        <v>3.234</v>
+      </c>
+      <c r="L158">
+        <f t="shared" si="1"/>
+        <v>-2.3939999999999997</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="C159">
+        <v>3.472</v>
+      </c>
+      <c r="D159">
+        <v>-2.5339999999999998</v>
+      </c>
+      <c r="H159">
+        <v>2.48</v>
+      </c>
+      <c r="I159">
+        <v>-1.81</v>
+      </c>
+      <c r="J159">
+        <v>1.4</v>
+      </c>
+      <c r="K159">
+        <f t="shared" si="0"/>
+        <v>3.472</v>
+      </c>
+      <c r="L159">
+        <f t="shared" si="1"/>
+        <v>-2.5339999999999998</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="C160">
+        <v>3.6260000000000003</v>
+      </c>
+      <c r="D160">
+        <v>-2.569</v>
+      </c>
+      <c r="H160">
+        <v>2.5900000000000003</v>
+      </c>
+      <c r="I160">
+        <v>-1.835</v>
+      </c>
+      <c r="J160">
+        <v>1.4</v>
+      </c>
+      <c r="K160">
+        <f t="shared" si="0"/>
+        <v>3.6260000000000003</v>
+      </c>
+      <c r="L160">
+        <f t="shared" si="1"/>
+        <v>-2.569</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="C161">
+        <v>3.78</v>
+      </c>
+      <c r="D161">
+        <v>-2.6320000000000001</v>
+      </c>
+      <c r="H161">
+        <v>2.7</v>
+      </c>
+      <c r="I161">
+        <v>-1.8800000000000001</v>
+      </c>
+      <c r="J161">
+        <v>1.4</v>
+      </c>
+      <c r="K161">
+        <f t="shared" si="0"/>
+        <v>3.78</v>
+      </c>
+      <c r="L161">
+        <f t="shared" si="1"/>
+        <v>-2.6320000000000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="C162">
+        <v>3.8639999999999999</v>
+      </c>
+      <c r="D162">
+        <v>-2.5549999999999997</v>
+      </c>
+      <c r="H162">
+        <v>2.7600000000000002</v>
+      </c>
+      <c r="I162">
+        <v>-1.825</v>
+      </c>
+      <c r="J162">
+        <v>1.4</v>
+      </c>
+      <c r="K162">
+        <f t="shared" si="0"/>
+        <v>3.8639999999999999</v>
+      </c>
+      <c r="L162">
+        <f t="shared" si="1"/>
+        <v>-2.5549999999999997</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="C163">
+        <v>3.9689999999999999</v>
+      </c>
+      <c r="D163">
+        <v>-2.569</v>
+      </c>
+      <c r="H163">
+        <v>2.835</v>
+      </c>
+      <c r="I163">
+        <v>-1.835</v>
+      </c>
+      <c r="J163">
+        <v>1.4</v>
+      </c>
+      <c r="K163">
+        <f t="shared" si="0"/>
+        <v>3.9689999999999999</v>
+      </c>
+      <c r="L163">
+        <f t="shared" si="1"/>
+        <v>-2.569</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="C164">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="D164">
+        <v>-2.2119999999999997</v>
+      </c>
+      <c r="H164">
+        <v>2.9</v>
+      </c>
+      <c r="I164">
+        <v>-1.58</v>
+      </c>
+      <c r="J164">
+        <v>1.4</v>
+      </c>
+      <c r="K164">
+        <f t="shared" si="0"/>
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="L164">
+        <f t="shared" si="1"/>
+        <v>-2.2119999999999997</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="C165">
+        <v>4.1509999999999998</v>
+      </c>
+      <c r="D165">
+        <v>-1.7990000000000002</v>
+      </c>
+      <c r="H165">
+        <v>2.9649999999999999</v>
+      </c>
+      <c r="I165">
+        <v>-1.2850000000000001</v>
+      </c>
+      <c r="J165">
+        <v>1.4</v>
+      </c>
+      <c r="K165">
+        <f t="shared" si="0"/>
+        <v>4.1509999999999998</v>
+      </c>
+      <c r="L165">
+        <f t="shared" si="1"/>
+        <v>-1.7990000000000002</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="C166">
+        <v>4.1719999999999997</v>
+      </c>
+      <c r="D166">
+        <v>-1.246</v>
+      </c>
+      <c r="H166">
+        <v>2.98</v>
+      </c>
+      <c r="I166">
+        <v>-0.89</v>
+      </c>
+      <c r="J166">
+        <v>1.4</v>
+      </c>
+      <c r="K166">
+        <f t="shared" si="0"/>
+        <v>4.1719999999999997</v>
+      </c>
+      <c r="L166">
+        <f t="shared" si="1"/>
+        <v>-1.246</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="C1:D1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H152:I166">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -8088,6 +9263,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>